--- a/PCB/BOM/BOM.xlsx
+++ b/PCB/BOM/BOM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="14292" windowHeight="4632"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +57,6 @@
     <t>80-C0805C104K5RACLR</t>
   </si>
   <si>
-    <t>581-08056D107MAT2A</t>
-  </si>
-  <si>
     <t>863-LM317MADTRKG</t>
   </si>
   <si>
@@ -77,9 +69,6 @@
     <t>https://eu.mouser.com/ProductDetail/KEMET/C0805C104K5RAC7411?qs=sGAEpiMZZMsh%252B1woXyUXjwJnusVcbgzI8obGGNbqUus%3D</t>
   </si>
   <si>
-    <t>https://eu.mouser.com/ProductDetail/KYOCERA-AVX/08056D107MAT2A?qs=sGAEpiMZZMsh%252B1woXyUXj9Ay8exncNnhvYP1lX4Wtbk%3D</t>
-  </si>
-  <si>
     <t>https://eu.mouser.com/ProductDetail/onsemi/LM317MADTRKG?qs=2OtswVQKCOFlhMcZfF6npw%3D%3D</t>
   </si>
   <si>
@@ -179,9 +168,6 @@
     <t>IC9, IC10, IC11, IC12</t>
   </si>
   <si>
-    <t>https://www.mouser.co.uk/ProductDetail/FTDI/FT230XS-U?qs=Gp1Yz1mis3UZolxbXux7lw%3D%3D</t>
-  </si>
-  <si>
     <t>IC13</t>
   </si>
   <si>
@@ -194,15 +180,9 @@
     <t>J1</t>
   </si>
   <si>
-    <t>https://eu.mouser.com/ProductDetail/CUI-Devices/UJ2-BH-1-TH?qs=5mqXD9RfOg2PqeDe959d6w%3D%3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">UJ2-BH-1-TH  </t>
   </si>
   <si>
-    <t>490-UJ2-BH-1-TH</t>
-  </si>
-  <si>
     <t>MC74HC175ADG</t>
   </si>
   <si>
@@ -251,12 +231,6 @@
     <t>VDD PIN</t>
   </si>
   <si>
-    <t>https://eu.mouser.com/ProductDetail/Microchip-Technology-Atmel/PIC24FJ256GA705-I-M4?qs=Cv1v43EOJpqZl68aYIlasQ%3D%3D</t>
-  </si>
-  <si>
-    <t>579-24FJ256GA705I/M4</t>
-  </si>
-  <si>
     <t>830003156B</t>
   </si>
   <si>
@@ -264,13 +238,34 @@
   </si>
   <si>
     <t>https://eu.mouser.com/ProductDetail/Wurth-Elektronik/830003156B?qs=2WXlatMagcHnVMrUSWOG9g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/CUI-Devices/UJ2-BH-W2-TH?qs=5mqXD9RfOg2S8wXYHZgk9A%3D%3D</t>
+  </si>
+  <si>
+    <t>490-UJ2-BH-W2-TH</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/FTDI/FT230XS-U?qs=Gp1Yz1mis3UZolxbXux7lw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Microchip-Technology/PIC24FJ64GA002T-I-SS?qs=Fllw7YelV393P08MHz84Bg%3D%3D</t>
+  </si>
+  <si>
+    <t>579-PIC24FJ64GA002TI</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/KYOCERA-AVX/CM21X5R107M06AT?qs=sGAEpiMZZMsh%252B1woXyUXj9Ay8exncNnhpnCEzIsfmDk%3D</t>
+  </si>
+  <si>
+    <t>581-CM21X5R107M06AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +417,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -772,7 +780,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -788,6 +796,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,7 +900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,19 +1147,19 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="82.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="83.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1166,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1177,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1203,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -1226,10 +1236,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1237,19 +1247,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1257,19 +1267,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1277,19 +1287,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1303,13 +1313,13 @@
         <v>240</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1317,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>220</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1337,19 +1347,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1363,13 +1373,13 @@
         <v>390</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1377,19 +1387,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1397,17 +1407,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1415,19 +1425,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1435,19 +1445,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1455,19 +1465,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1475,19 +1485,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1495,19 +1505,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1515,17 +1525,17 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1533,17 +1543,17 @@
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1551,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1571,12 +1581,12 @@
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
@@ -1597,11 +1607,12 @@
     <hyperlink ref="F21" r:id="rId4"/>
     <hyperlink ref="F9" r:id="rId5"/>
     <hyperlink ref="F3" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
-    <hyperlink ref="F2" r:id="rId8"/>
+    <hyperlink ref="F2" r:id="rId7"/>
+    <hyperlink ref="F18" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1611,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1623,7 +1634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
